--- a/AMDEC & Pareto.xlsx
+++ b/AMDEC & Pareto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\.oracle_jre_usage\Documents\PFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,11 +21,6 @@
     <definedName name="_xlchart.v1.2" hidden="1">Preto!$D$8:$D$14</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Preto!$F$7</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Preto!$F$8:$F$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Preto!$C$8:$C$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Preto!$D$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Preto!$D$8:$D$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Preto!$F$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Preto!$F$8:$F$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -234,7 +229,7 @@
     <t>Méthode de Pareto sur lacriticité des composants Hydraulique</t>
   </si>
   <si>
-    <t>Interprétation de diagramme pareto: suivant la resultat vise par le diagraame ci-dssus nous constatons que l'indice de criticité des composants suivants constituent 80% de totalité de cricitcité des organes hydra……</t>
+    <t>Interprétation de diagramme pareto: suivant la resultat vise par le diagraame ci-dssus nous constatons que lg'indice de criticité des composants suivants constituent 80% de totalité de cricitcité des organes hydra……</t>
   </si>
 </sst>
 </file>
@@ -673,6 +668,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -682,179 +812,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2141,102 +2136,102 @@
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16" t="s">
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="13" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2254,10 +2249,10 @@
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="62" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2269,20 +2264,20 @@
       <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="42">
+      <c r="K17" s="51"/>
+      <c r="L17" s="40">
         <v>2</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="40">
         <v>1</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="40">
         <v>2</v>
       </c>
-      <c r="O17" s="48">
+      <c r="O17" s="69">
         <f>L17*M17*N17</f>
         <v>4</v>
       </c>
@@ -2291,135 +2286,135 @@
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="23"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="49"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="70"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="23"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="49"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="70"/>
     </row>
     <row r="20" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="50"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="71"/>
     </row>
     <row r="21" spans="5:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="65" t="s">
+      <c r="I21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="69"/>
-      <c r="L21" s="59">
+      <c r="K21" s="33"/>
+      <c r="L21" s="22">
         <v>1</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="22">
         <v>3</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="22">
         <v>3</v>
       </c>
-      <c r="O21" s="56">
+      <c r="O21" s="19">
         <f>L21*M21*N21</f>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="33"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="57"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="33"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="57"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="33"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="57"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="20"/>
     </row>
     <row r="25" spans="5:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="19"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="58"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="5:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="49" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2431,74 +2426,74 @@
       <c r="I26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="45">
+      <c r="K26" s="51"/>
+      <c r="L26" s="13">
         <v>2</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="13">
         <v>3</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="13">
         <v>3</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O26" s="16">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="23"/>
-      <c r="F27" s="37"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="54"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="23"/>
-      <c r="F28" s="37"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="54"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="23"/>
-      <c r="F29" s="37"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="54"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="23"/>
-      <c r="F30" s="37"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="55"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="5:16" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="10" t="s">
@@ -2516,10 +2511,10 @@
       <c r="I31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="39"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="11">
         <v>1</v>
       </c>
@@ -2552,10 +2547,10 @@
       <c r="I32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="52"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="11">
         <v>1</v>
       </c>
@@ -2585,10 +2580,10 @@
       <c r="I33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="39"/>
+      <c r="K33" s="46"/>
       <c r="L33" s="11">
         <v>2</v>
       </c>
@@ -2608,8 +2603,8 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="39"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2621,8 +2616,8 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2630,29 +2625,11 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="O26:O30"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="J26:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:O13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:O14"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
@@ -2666,11 +2643,29 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="N17:N20"/>
     <mergeCell ref="O17:O20"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:O13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="J26:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="M26:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="O26:O30"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/AMDEC & Pareto.xlsx
+++ b/AMDEC & Pareto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="AMDEC" sheetId="1" r:id="rId1"/>
@@ -668,6 +668,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -677,6 +782,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,9 +815,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -742,114 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2117,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:O20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2136,102 +2136,102 @@
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="54" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="55"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="57"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="15"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="58" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2249,10 +2249,10 @@
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2264,20 +2264,20 @@
       <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="40">
+      <c r="K17" s="28"/>
+      <c r="L17" s="37">
         <v>2</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="37">
         <v>1</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="37">
         <v>2</v>
       </c>
-      <c r="O17" s="69">
+      <c r="O17" s="40">
         <f>L17*M17*N17</f>
         <v>4</v>
       </c>
@@ -2286,135 +2286,135 @@
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="48"/>
-      <c r="F18" s="63"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="70"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="41"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="48"/>
-      <c r="F19" s="63"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="70"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="41"/>
     </row>
     <row r="20" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="61"/>
-      <c r="F20" s="63"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="71"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="42"/>
     </row>
     <row r="21" spans="5:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="22">
+      <c r="K21" s="69"/>
+      <c r="L21" s="59">
         <v>1</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="59">
         <v>3</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="59">
         <v>3</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="56">
         <f>L21*M21*N21</f>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="20"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="57"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="20"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="57"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="20"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="57"/>
     </row>
     <row r="25" spans="5:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="56"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="21"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="58"/>
     </row>
     <row r="26" spans="5:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="43" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2426,74 +2426,74 @@
       <c r="I26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="13">
+      <c r="K26" s="28"/>
+      <c r="L26" s="48">
         <v>2</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="48">
         <v>3</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="48">
         <v>3</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="53">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="17"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="54"/>
     </row>
     <row r="28" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="17"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="54"/>
     </row>
     <row r="29" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="17"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="54"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="18"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="55"/>
     </row>
     <row r="31" spans="5:16" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="10" t="s">
@@ -2511,10 +2511,10 @@
       <c r="I31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="46"/>
+      <c r="K31" s="45"/>
       <c r="L31" s="11">
         <v>1</v>
       </c>
@@ -2547,10 +2547,10 @@
       <c r="I32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="44"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="11">
         <v>1</v>
       </c>
@@ -2580,10 +2580,10 @@
       <c r="I33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="46"/>
+      <c r="K33" s="45"/>
       <c r="L33" s="11">
         <v>2</v>
       </c>
@@ -2603,8 +2603,8 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2616,8 +2616,8 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2625,11 +2625,29 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:O13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="O26:O30"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="M26:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="J26:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J15:K16"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
@@ -2643,29 +2661,11 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="N17:N20"/>
     <mergeCell ref="O17:O20"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="J26:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="O26:O30"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:O13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2676,7 +2676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+    <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="H23" sqref="H23:M28"/>
     </sheetView>
   </sheetViews>

--- a/AMDEC & Pareto.xlsx
+++ b/AMDEC & Pareto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AMDEC" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Preto!$C$8:$C$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Preto!$D$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Preto!$D$8:$D$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Preto!$F$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Preto!$F$8:$F$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Preto!$C$8:$C$15</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Preto!$F$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Preto!$F$8:$F$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Preto!$D$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Preto!$D$8:$D$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Preto!$D$8:$D$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Preto!$F$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Preto!$F$8:$F$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Preto!$C$8:$C$14</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Preto!$D$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Preto!$D$8:$D$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Analyse des Modes de Défaillances de leurs Effets et de leurs Criticités (AMDEC)</t>
   </si>
@@ -199,18 +206,6 @@
     <t>Criticité</t>
   </si>
   <si>
-    <t>Pompe HP</t>
-  </si>
-  <si>
-    <t>Moteur Barb</t>
-  </si>
-  <si>
-    <t>Filtre Hydrau</t>
-  </si>
-  <si>
-    <t>Moteur Orient</t>
-  </si>
-  <si>
     <t>Assurer la pression d’huile suffisante pour alimenter les différents organes de la machine</t>
   </si>
   <si>
@@ -226,10 +221,28 @@
     <t xml:space="preserve">Composant </t>
   </si>
   <si>
-    <t>Méthode de Pareto sur lacriticité des composants Hydraulique</t>
-  </si>
-  <si>
     <t>Interprétation de diagramme pareto: suivant la resultat vise par le diagraame ci-dssus nous constatons que lg'indice de criticité des composants suivants constituent 80% de totalité de cricitcité des organes hydra……</t>
+  </si>
+  <si>
+    <t>Distrubiteur</t>
+  </si>
+  <si>
+    <t>Pompes Hyd</t>
+  </si>
+  <si>
+    <t>Verins</t>
+  </si>
+  <si>
+    <t>Barbotin</t>
+  </si>
+  <si>
+    <t>Filtres</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Méthode de Pareto sur la criticité des composants Hydraulique</t>
   </si>
 </sst>
 </file>
@@ -634,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -668,6 +681,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -677,186 +825,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,15 +894,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.4</cx:f>
@@ -915,43 +921,21 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{84AA4236-3FA8-4A81-A2C2-1C6F059739B3}" formatIdx="0">
+        <cx:series layoutId="clusteredColumn" uniqueId="{79FCFBE1-9A60-4145-A7DD-51548FA0663F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Criticité</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataLabels>
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:aggregation/>
           </cx:layoutPr>
           <cx:axisId val="1"/>
         </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{9ABC577E-793D-4E66-AE77-CEF9A05F1881}" formatIdx="1">
-          <cx:axisId val="2"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{65F7C4DB-4488-4719-B898-9AE3FED90E65}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>%cumulé</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels>
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{E789F70F-88A1-4B09-AF12-28FCA33C89F1}" formatIdx="3">
-          <cx:axisId val="2"/>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{22BBE272-F7DF-48AA-9329-462F5523D2B2}">
+          <cx:axisId val="3"/>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
@@ -997,9 +981,8 @@
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
-      <cx:axis id="2">
+      <cx:axis id="3">
         <cx:valScaling max="1" min="0"/>
-        <cx:title/>
         <cx:units unit="percentage"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1680,13 +1663,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1753,14 +1736,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>497204</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1775,8 +1758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696074" y="1704975"/>
-          <a:ext cx="1506855" cy="1594485"/>
+          <a:off x="6696074" y="1743075"/>
+          <a:ext cx="1333501" cy="1594485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2117,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:K33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,107 +2114,107 @@
   <sheetData>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16" t="s">
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="60"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="13" t="s">
+      <c r="K15" s="55"/>
+      <c r="L15" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="15"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="60"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2249,10 +2232,10 @@
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="62" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2264,20 +2247,20 @@
       <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="37">
+      <c r="K17" s="51"/>
+      <c r="L17" s="40">
         <v>2</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="40">
         <v>1</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="40">
         <v>2</v>
       </c>
-      <c r="O17" s="40">
+      <c r="O17" s="69">
         <f>L17*M17*N17</f>
         <v>4</v>
       </c>
@@ -2286,135 +2269,135 @@
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="23"/>
-      <c r="F18" s="26"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="41"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="70"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="23"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="41"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="70"/>
     </row>
     <row r="20" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="24"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="42"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="71"/>
     </row>
     <row r="21" spans="5:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="65" t="s">
+      <c r="F21" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="68" t="s">
+      <c r="J21" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="69"/>
-      <c r="L21" s="59">
+      <c r="K21" s="33"/>
+      <c r="L21" s="22">
         <v>1</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="22">
         <v>3</v>
       </c>
-      <c r="N21" s="59">
+      <c r="N21" s="22">
         <v>3</v>
       </c>
-      <c r="O21" s="56">
+      <c r="O21" s="19">
         <f>L21*M21*N21</f>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="33"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="57"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="33"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="57"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="33"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="57"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="20"/>
     </row>
     <row r="25" spans="5:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="19"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="58"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="21"/>
     </row>
     <row r="26" spans="5:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="49" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2426,74 +2409,74 @@
       <c r="I26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="48">
+      <c r="K26" s="51"/>
+      <c r="L26" s="13">
         <v>2</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="13">
         <v>3</v>
       </c>
-      <c r="N26" s="48">
+      <c r="N26" s="13">
         <v>3</v>
       </c>
-      <c r="O26" s="53">
+      <c r="O26" s="16">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="23"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="54"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="23"/>
-      <c r="F28" s="43"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="54"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="23"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="54"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="23"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="55"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="5:16" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="10" t="s">
@@ -2511,10 +2494,10 @@
       <c r="I31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J31" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="45"/>
+      <c r="K31" s="46"/>
       <c r="L31" s="11">
         <v>1</v>
       </c>
@@ -2547,10 +2530,10 @@
       <c r="I32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="51" t="s">
+      <c r="J32" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="52"/>
+      <c r="K32" s="44"/>
       <c r="L32" s="11">
         <v>1</v>
       </c>
@@ -2580,10 +2563,10 @@
       <c r="I33" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="45"/>
+      <c r="K33" s="46"/>
       <c r="L33" s="11">
         <v>2</v>
       </c>
@@ -2603,8 +2586,8 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="47"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="39"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2616,8 +2599,8 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="47"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2625,29 +2608,11 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="O26:O30"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="J26:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:O13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:O14"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
@@ -2661,14 +2626,33 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="N17:N20"/>
     <mergeCell ref="O17:O20"/>
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:O13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="J26:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="M26:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="O26:O30"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2676,8 +2660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:M28"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2675,7 @@
   <sheetData>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="74" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
@@ -2699,7 +2683,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>54</v>
@@ -2722,101 +2706,121 @@
         <v>18</v>
       </c>
       <c r="F8" s="5">
-        <f>E8/E$13</f>
-        <v>0.40909090909090912</v>
+        <f>E8/E$15</f>
+        <v>0.24324324324324326</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4">
         <f>E8+D9</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:F13" si="0">E9/E$13</f>
-        <v>0.61363636363636365</v>
+        <f>E9/E$15</f>
+        <v>0.48648648648648651</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E13" si="1">E9+D10</f>
-        <v>33</v>
+        <f t="shared" ref="E10:E13" si="0">E9+D10</f>
+        <v>48</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f>E10/E$15</f>
+        <v>0.64864864864864868</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>37</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.84090909090909094</v>
+        <f>E11/E$15</f>
+        <v>0.77027027027027029</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.93181818181818177</v>
+        <f>E12/E$15</f>
+        <v>0.85135135135135132</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <f>E12+D13</f>
+        <v>67</v>
+      </c>
+      <c r="F13" s="76">
+        <f>E13/E$15</f>
+        <v>0.90540540540540537</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <f>E13+D14</f>
+        <v>71</v>
+      </c>
+      <c r="F14" s="76">
+        <f>E14/E$15</f>
+        <v>0.95945945945945943</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
+      <c r="E15" s="4">
+        <f>E14+D15</f>
+        <v>74</v>
+      </c>
+      <c r="F15" s="76">
+        <f>E15/E$15</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
@@ -2866,7 +2870,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="H23" s="75" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I23" s="75"/>
       <c r="J23" s="75"/>

--- a/AMDEC & Pareto.xlsx
+++ b/AMDEC & Pareto.xlsx
@@ -16,18 +16,9 @@
     <sheet name="Preto" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Preto!$C$8:$C$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Preto!$C$8:$C$15</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Preto!$F$7</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Preto!$F$8:$F$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Preto!$D$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Preto!$D$8:$D$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Preto!$D$8:$D$15</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Preto!$F$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Preto!$F$8:$F$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Preto!$C$8:$C$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Preto!$D$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Preto!$D$8:$D$14</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Preto!$C$8:$C$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Preto!$D$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Preto!$D$8:$D$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -227,15 +218,9 @@
     <t>Distrubiteur</t>
   </si>
   <si>
-    <t>Pompes Hyd</t>
-  </si>
-  <si>
     <t>Verins</t>
   </si>
   <si>
-    <t>Barbotin</t>
-  </si>
-  <si>
     <t>Filtres</t>
   </si>
   <si>
@@ -243,6 +228,12 @@
   </si>
   <si>
     <t>Méthode de Pareto sur la criticité des composants Hydraulique</t>
+  </si>
+  <si>
+    <t>Barbotins</t>
+  </si>
+  <si>
+    <t>Pompes Principales</t>
   </si>
 </sst>
 </file>
@@ -681,6 +672,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -690,6 +787,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -717,9 +820,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -756,121 +856,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,10 +885,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -924,7 +915,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{79FCFBE1-9A60-4145-A7DD-51548FA0663F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Criticité</cx:v>
             </cx:txData>
           </cx:tx>
@@ -935,7 +926,7 @@
           <cx:axisId val="1"/>
         </cx:series>
         <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{22BBE272-F7DF-48AA-9329-462F5523D2B2}">
-          <cx:axisId val="3"/>
+          <cx:axisId val="2"/>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
@@ -981,7 +972,7 @@
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
-      <cx:axis id="3">
+      <cx:axis id="2">
         <cx:valScaling max="1" min="0"/>
         <cx:units unit="percentage"/>
         <cx:tickLabels/>
@@ -1661,15 +1652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:colOff>13335</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5715</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1735,13 +1726,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>314326</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
@@ -1758,8 +1749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696074" y="1743075"/>
-          <a:ext cx="1333501" cy="1594485"/>
+          <a:off x="6696075" y="1743075"/>
+          <a:ext cx="1323976" cy="1594485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2119,102 +2110,102 @@
     </row>
     <row r="10" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="54" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="55"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="57"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="60"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="58" t="s">
+      <c r="K15" s="19"/>
+      <c r="L15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="60"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2232,10 +2223,10 @@
       </c>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="26" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -2247,20 +2238,20 @@
       <c r="I17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="40">
+      <c r="K17" s="29"/>
+      <c r="L17" s="38">
         <v>2</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="38">
         <v>1</v>
       </c>
-      <c r="N17" s="40">
+      <c r="N17" s="38">
         <v>2</v>
       </c>
-      <c r="O17" s="69">
+      <c r="O17" s="41">
         <f>L17*M17*N17</f>
         <v>4</v>
       </c>
@@ -2269,135 +2260,135 @@
       </c>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="48"/>
-      <c r="F18" s="63"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="70"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="42"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="48"/>
-      <c r="F19" s="63"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="70"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="42"/>
     </row>
     <row r="20" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="61"/>
-      <c r="F20" s="63"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="71"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="5:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="22">
+      <c r="K21" s="70"/>
+      <c r="L21" s="60">
         <v>1</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="60">
         <v>3</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="60">
         <v>3</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="57">
         <f>L21*M21*N21</f>
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="20"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="58"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="20"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="58"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="20"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="58"/>
     </row>
     <row r="25" spans="5:16" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="56"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="21"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="59"/>
     </row>
     <row r="26" spans="5:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="44" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2409,74 +2400,74 @@
       <c r="I26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="13">
+      <c r="K26" s="29"/>
+      <c r="L26" s="49">
         <v>2</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="49">
         <v>3</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="49">
         <v>3</v>
       </c>
-      <c r="O26" s="16">
+      <c r="O26" s="54">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="17"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="55"/>
     </row>
     <row r="28" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="17"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="55"/>
     </row>
     <row r="29" spans="5:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="17"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="55"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="18"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" spans="5:16" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="10" t="s">
@@ -2530,10 +2521,10 @@
       <c r="I32" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="K32" s="44"/>
+      <c r="K32" s="53"/>
       <c r="L32" s="11">
         <v>1</v>
       </c>
@@ -2586,8 +2577,8 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="39"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2599,8 +2590,8 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="39"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="48"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2608,11 +2599,29 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E11:O11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:O13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:O14"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="O26:O30"/>
+    <mergeCell ref="O21:O25"/>
+    <mergeCell ref="N21:N25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="I21:I25"/>
+    <mergeCell ref="J21:K25"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="M26:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="J26:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J15:K16"/>
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
@@ -2626,29 +2635,11 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="N17:N20"/>
     <mergeCell ref="O17:O20"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="F26:F30"/>
-    <mergeCell ref="J26:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="O26:O30"/>
-    <mergeCell ref="O21:O25"/>
-    <mergeCell ref="N21:N25"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="I21:I25"/>
-    <mergeCell ref="J21:K25"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:O13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2661,7 +2652,7 @@
   <dimension ref="C6:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,12 +2665,12 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="C6" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
@@ -2706,7 +2697,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="5">
-        <f>E8/E$15</f>
+        <f t="shared" ref="F8:F15" si="0">E8/E$15</f>
         <v>0.24324324324324326</v>
       </c>
     </row>
@@ -2722,55 +2713,55 @@
         <v>36</v>
       </c>
       <c r="F9" s="5">
-        <f>E9/E$15</f>
+        <f t="shared" si="0"/>
         <v>0.48648648648648651</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="4">
         <v>12</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E13" si="0">E9+D10</f>
+        <f t="shared" ref="E10:E12" si="1">E9+D10</f>
         <v>48</v>
       </c>
       <c r="F10" s="5">
-        <f>E10/E$15</f>
+        <f t="shared" si="0"/>
         <v>0.64864864864864868</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4">
         <v>9</v>
       </c>
       <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="F11" s="5">
-        <f>E11/E$15</f>
         <v>0.77027027027027029</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="F12" s="5">
-        <f>E12/E$15</f>
         <v>0.85135135135135132</v>
       </c>
     </row>
@@ -2785,14 +2776,14 @@
         <f>E12+D13</f>
         <v>67</v>
       </c>
-      <c r="F13" s="76">
-        <f>E13/E$15</f>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
         <v>0.90540540540540537</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="4">
         <v>4</v>
@@ -2801,14 +2792,14 @@
         <f>E13+D14</f>
         <v>71</v>
       </c>
-      <c r="F14" s="76">
-        <f>E14/E$15</f>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
         <v>0.95945945945945943</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4">
         <v>3</v>
@@ -2817,8 +2808,8 @@
         <f>E14+D15</f>
         <v>74</v>
       </c>
-      <c r="F15" s="76">
-        <f>E15/E$15</f>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2869,58 +2860,58 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
     </row>
   </sheetData>
   <sortState ref="C8:F14">
